--- a/py/apps/web-scraper/Udemy-the-complete-nodejs-developer-course-2.xlsx
+++ b/py/apps/web-scraper/Udemy-the-complete-nodejs-developer-course-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="393">
   <si>
     <t>TECH</t>
   </si>
@@ -91,6 +91,30 @@
     <t>MongoDB and Promises (Task App)</t>
   </si>
   <si>
+    <t>REST APIs and Mongoose (Task App)</t>
+  </si>
+  <si>
+    <t>API Authentication and Security (Task App)</t>
+  </si>
+  <si>
+    <t>Sorting, Pagination, and Filtering (Task App)</t>
+  </si>
+  <si>
+    <t>File Uploads (Task App)</t>
+  </si>
+  <si>
+    <t>Sending Emails (Task App)</t>
+  </si>
+  <si>
+    <t>Testing Node.js (Task App)</t>
+  </si>
+  <si>
+    <t>Real-Time Web Applications with Socket.io (Chat App)</t>
+  </si>
+  <si>
+    <t>Wrapping Up</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 sections  --  177 lectures </t>
   </si>
   <si>
@@ -337,6 +361,294 @@
     <t>Deleting Documents</t>
   </si>
   <si>
+    <t>Section Intro: REST APIs and Mongoose</t>
+  </si>
+  <si>
+    <t>Setting up Mongoose</t>
+  </si>
+  <si>
+    <t>Creating a Mongoose Model</t>
+  </si>
+  <si>
+    <t>Data Validation and Sanitization: Part I</t>
+  </si>
+  <si>
+    <t>Data Validation and Sanitization: Part II</t>
+  </si>
+  <si>
+    <t>Structuring a REST API</t>
+  </si>
+  <si>
+    <t>Installing Postman</t>
+  </si>
+  <si>
+    <t>Resource Creation Endpoints: Part I</t>
+  </si>
+  <si>
+    <t>Resource Creation Endpoints: Part II</t>
+  </si>
+  <si>
+    <t>Resource Reading Endpoints: Part I</t>
+  </si>
+  <si>
+    <t>Resource Reading Endpoints: Part II</t>
+  </si>
+  <si>
+    <t>Promise Chaining</t>
+  </si>
+  <si>
+    <t>Promise Chaining Challenge</t>
+  </si>
+  <si>
+    <t>Async/Await</t>
+  </si>
+  <si>
+    <t>Async/Await: Part II</t>
+  </si>
+  <si>
+    <t>Integrating Async/Await</t>
+  </si>
+  <si>
+    <t>Resource Updating Endpoints: Part I</t>
+  </si>
+  <si>
+    <t>Resource Updating Endpoints: Part II</t>
+  </si>
+  <si>
+    <t>Resource Deleting Endpoints</t>
+  </si>
+  <si>
+    <t>Separate Route Files</t>
+  </si>
+  <si>
+    <t>Section Intro: API Authentication and Security</t>
+  </si>
+  <si>
+    <t>Securely Storing Passwords: Part I</t>
+  </si>
+  <si>
+    <t>Securely Storing Passwords: Part II</t>
+  </si>
+  <si>
+    <t>Logging in Users</t>
+  </si>
+  <si>
+    <t>JSON Web Tokens</t>
+  </si>
+  <si>
+    <t>Generating Authentication Tokens</t>
+  </si>
+  <si>
+    <t>Express Middleware</t>
+  </si>
+  <si>
+    <t>Accepting Authentication Tokens</t>
+  </si>
+  <si>
+    <t>Advanced Postman</t>
+  </si>
+  <si>
+    <t>Logging Out</t>
+  </si>
+  <si>
+    <t>Hiding Private Data</t>
+  </si>
+  <si>
+    <t>Authenticating User Endpoints</t>
+  </si>
+  <si>
+    <t>The User/Task Relationship</t>
+  </si>
+  <si>
+    <t>Authenticating Task Endpoints</t>
+  </si>
+  <si>
+    <t>Cascade Delete Tasks</t>
+  </si>
+  <si>
+    <t>Section Intro: Sorting, Pagination, and Filtering</t>
+  </si>
+  <si>
+    <t>Working with Timestamps</t>
+  </si>
+  <si>
+    <t>Filtering Data</t>
+  </si>
+  <si>
+    <t>Paginating Data</t>
+  </si>
+  <si>
+    <t>Sorting Data</t>
+  </si>
+  <si>
+    <t>Section Intro: File Uploads</t>
+  </si>
+  <si>
+    <t>Adding Support for File Uploads</t>
+  </si>
+  <si>
+    <t>Validating File Uploads</t>
+  </si>
+  <si>
+    <t>Validation Challenge</t>
+  </si>
+  <si>
+    <t>Handling Express Errors</t>
+  </si>
+  <si>
+    <t>Adding Images to User Profile</t>
+  </si>
+  <si>
+    <t>Serving up Files</t>
+  </si>
+  <si>
+    <t>Auto-Cropping and Image Formatting</t>
+  </si>
+  <si>
+    <t>Section Intro: Sending Emails</t>
+  </si>
+  <si>
+    <t>Exploring SendGrid</t>
+  </si>
+  <si>
+    <t>Sending Welcome and Cancelation Emails</t>
+  </si>
+  <si>
+    <t>Environment Variables</t>
+  </si>
+  <si>
+    <t>Creating a Production MongoDB Database</t>
+  </si>
+  <si>
+    <t>Heroku Deployment</t>
+  </si>
+  <si>
+    <t>Section Intro: Testing Node.js</t>
+  </si>
+  <si>
+    <t>Jest Testing Framework</t>
+  </si>
+  <si>
+    <t>Writing Tests and Assertions</t>
+  </si>
+  <si>
+    <t>Writing Your Own Tests</t>
+  </si>
+  <si>
+    <t>Testing Asynchronous Code</t>
+  </si>
+  <si>
+    <t>Testing an Express Application: Part I</t>
+  </si>
+  <si>
+    <t>Testing an Express Application: Part II</t>
+  </si>
+  <si>
+    <t>Jest Setup and Teardown</t>
+  </si>
+  <si>
+    <t>Testing with Authentication</t>
+  </si>
+  <si>
+    <t>Advanced Assertions</t>
+  </si>
+  <si>
+    <t>Mocking Libraries</t>
+  </si>
+  <si>
+    <t>Wrapping up User Tests</t>
+  </si>
+  <si>
+    <t>Setup Task Test Suite</t>
+  </si>
+  <si>
+    <t>Testing with Task Data</t>
+  </si>
+  <si>
+    <t>Bonus: Extra Test Ideas</t>
+  </si>
+  <si>
+    <t>Section Intro: Real-Time Web Applications with Socket.io</t>
+  </si>
+  <si>
+    <t>Creating the Chat App Project</t>
+  </si>
+  <si>
+    <t>WebSockets</t>
+  </si>
+  <si>
+    <t>Getting Started with Socket.io</t>
+  </si>
+  <si>
+    <t>Socket.io Events</t>
+  </si>
+  <si>
+    <t>Socket.io Events Challenge</t>
+  </si>
+  <si>
+    <t>Broadcasting Events</t>
+  </si>
+  <si>
+    <t>Sharing Your Location</t>
+  </si>
+  <si>
+    <t>Event Acknowledgements</t>
+  </si>
+  <si>
+    <t>Form and Button States</t>
+  </si>
+  <si>
+    <t>Rendering Messages</t>
+  </si>
+  <si>
+    <t>Rendering Location Messages</t>
+  </si>
+  <si>
+    <t>Working with Time</t>
+  </si>
+  <si>
+    <t>Timestamps for Location Messages</t>
+  </si>
+  <si>
+    <t>Styling the Chat App</t>
+  </si>
+  <si>
+    <t>Join Page</t>
+  </si>
+  <si>
+    <t>Socket.io Rooms</t>
+  </si>
+  <si>
+    <t>Storing Users: Part I</t>
+  </si>
+  <si>
+    <t>Storing Users: Part II</t>
+  </si>
+  <si>
+    <t>Tracking Users Joining and Leaving</t>
+  </si>
+  <si>
+    <t>Sending Messages to Rooms</t>
+  </si>
+  <si>
+    <t>Rendering User List</t>
+  </si>
+  <si>
+    <t>Automatic Scrolling</t>
+  </si>
+  <si>
+    <t>Deploying the Chat Application</t>
+  </si>
+  <si>
+    <t>Section Intro</t>
+  </si>
+  <si>
+    <t>New Feature Ideas</t>
+  </si>
+  <si>
+    <t>Bonus: What should I learn next?</t>
+  </si>
+  <si>
     <t>35 hours</t>
   </si>
   <si>
@@ -605,6 +917,282 @@
   </si>
   <si>
     <t>07:46</t>
+  </si>
+  <si>
+    <t>4hr 8min</t>
+  </si>
+  <si>
+    <t>16:38</t>
+  </si>
+  <si>
+    <t>05:26</t>
+  </si>
+  <si>
+    <t>17:34</t>
+  </si>
+  <si>
+    <t>11:56</t>
+  </si>
+  <si>
+    <t>08:13</t>
+  </si>
+  <si>
+    <t>20:29</t>
+  </si>
+  <si>
+    <t>09:01</t>
+  </si>
+  <si>
+    <t>13:53</t>
+  </si>
+  <si>
+    <t>06:37</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
+    <t>07:19</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>16:16</t>
+  </si>
+  <si>
+    <t>08:49</t>
+  </si>
+  <si>
+    <t>09:52</t>
+  </si>
+  <si>
+    <t>14:48</t>
+  </si>
+  <si>
+    <t>3hr 17min</t>
+  </si>
+  <si>
+    <t>11:29</t>
+  </si>
+  <si>
+    <t>19:20</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>12:03</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>19:59</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>11:12</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>12:18</t>
+  </si>
+  <si>
+    <t>19:22</t>
+  </si>
+  <si>
+    <t>42min</t>
+  </si>
+  <si>
+    <t>01:21</t>
+  </si>
+  <si>
+    <t>06:48</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>1hr 23min</t>
+  </si>
+  <si>
+    <t>00:58</t>
+  </si>
+  <si>
+    <t>19:01</t>
+  </si>
+  <si>
+    <t>15:14</t>
+  </si>
+  <si>
+    <t>04:36</t>
+  </si>
+  <si>
+    <t>08:16</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>07:56</t>
+  </si>
+  <si>
+    <t>11:48</t>
+  </si>
+  <si>
+    <t>1hr 29min</t>
+  </si>
+  <si>
+    <t>00:57</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>16:26</t>
+  </si>
+  <si>
+    <t>19:09</t>
+  </si>
+  <si>
+    <t>15:28</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>2hr 53min</t>
+  </si>
+  <si>
+    <t>15:57</t>
+  </si>
+  <si>
+    <t>17:54</t>
+  </si>
+  <si>
+    <t>14:13</t>
+  </si>
+  <si>
+    <t>05:54</t>
+  </si>
+  <si>
+    <t>14:27</t>
+  </si>
+  <si>
+    <t>13:11</t>
+  </si>
+  <si>
+    <t>12:48</t>
+  </si>
+  <si>
+    <t>05:57</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>02:47</t>
+  </si>
+  <si>
+    <t>4hr 46min</t>
+  </si>
+  <si>
+    <t>00:49</t>
+  </si>
+  <si>
+    <t>13:14</t>
+  </si>
+  <si>
+    <t>06:08</t>
+  </si>
+  <si>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>15:39</t>
+  </si>
+  <si>
+    <t>06:22</t>
+  </si>
+  <si>
+    <t>15:11</t>
+  </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>11:22</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>10:28</t>
+  </si>
+  <si>
+    <t>20:27</t>
+  </si>
+  <si>
+    <t>07:05</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>14:37</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>07:58</t>
+  </si>
+  <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>14:29</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>16:03</t>
+  </si>
+  <si>
+    <t>7min</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>03:59</t>
+  </si>
+  <si>
+    <t>02:39</t>
   </si>
 </sst>
 </file>
@@ -962,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1023,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1058,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1087,10 +1675,10 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1119,10 +1707,10 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1154,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1183,10 +1771,10 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1215,10 +1803,10 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1247,10 +1835,10 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1279,10 +1867,10 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1311,10 +1899,10 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1346,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1375,10 +1963,10 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1407,10 +1995,10 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1439,10 +2027,10 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1471,10 +2059,10 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1503,10 +2091,10 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1535,10 +2123,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1570,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1599,10 +2187,10 @@
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1631,10 +2219,10 @@
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1663,10 +2251,10 @@
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1695,10 +2283,10 @@
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1727,10 +2315,10 @@
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1759,10 +2347,10 @@
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1791,10 +2379,10 @@
         <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1823,10 +2411,10 @@
         <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1855,10 +2443,10 @@
         <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1887,10 +2475,10 @@
         <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1919,10 +2507,10 @@
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1954,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1983,10 +2571,10 @@
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2015,10 +2603,10 @@
         <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2047,10 +2635,10 @@
         <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2082,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2111,10 +2699,10 @@
         <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2143,10 +2731,10 @@
         <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2175,10 +2763,10 @@
         <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2207,10 +2795,10 @@
         <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2239,10 +2827,10 @@
         <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2271,10 +2859,10 @@
         <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K41" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2303,10 +2891,10 @@
         <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K42" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2335,10 +2923,10 @@
         <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2367,10 +2955,10 @@
         <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2399,10 +2987,10 @@
         <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2431,10 +3019,10 @@
         <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K46" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2463,10 +3051,10 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2495,10 +3083,10 @@
         <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2527,10 +3115,10 @@
         <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2562,7 +3150,7 @@
         <v>11</v>
       </c>
       <c r="K50" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2591,10 +3179,10 @@
         <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2623,10 +3211,10 @@
         <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2655,10 +3243,10 @@
         <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2687,10 +3275,10 @@
         <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2719,10 +3307,10 @@
         <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2751,10 +3339,10 @@
         <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2783,10 +3371,10 @@
         <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2815,10 +3403,10 @@
         <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2847,10 +3435,10 @@
         <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2879,10 +3467,10 @@
         <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2911,10 +3499,10 @@
         <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2946,7 +3534,7 @@
         <v>7</v>
       </c>
       <c r="K62" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2975,10 +3563,10 @@
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3007,10 +3595,10 @@
         <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3039,10 +3627,10 @@
         <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3071,10 +3659,10 @@
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3103,10 +3691,10 @@
         <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3135,10 +3723,10 @@
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3167,10 +3755,10 @@
         <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3202,7 +3790,7 @@
         <v>10</v>
       </c>
       <c r="K70" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3231,10 +3819,10 @@
         <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3263,10 +3851,10 @@
         <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3295,10 +3883,10 @@
         <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3327,10 +3915,10 @@
         <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3359,10 +3947,10 @@
         <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s">
-        <v>178</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3391,10 +3979,10 @@
         <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K76" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3423,10 +4011,10 @@
         <v>23</v>
       </c>
       <c r="J77" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K77" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3455,10 +4043,10 @@
         <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K78" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3487,10 +4075,10 @@
         <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3519,10 +4107,10 @@
         <v>23</v>
       </c>
       <c r="J80" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K80" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3554,7 +4142,7 @@
         <v>12</v>
       </c>
       <c r="K81" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3583,10 +4171,10 @@
         <v>24</v>
       </c>
       <c r="J82" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K82" t="s">
-        <v>185</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3615,10 +4203,10 @@
         <v>24</v>
       </c>
       <c r="J83" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K83" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3647,10 +4235,10 @@
         <v>24</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K84" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3679,10 +4267,10 @@
         <v>24</v>
       </c>
       <c r="J85" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K85" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3711,10 +4299,10 @@
         <v>24</v>
       </c>
       <c r="J86" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K86" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3743,10 +4331,10 @@
         <v>24</v>
       </c>
       <c r="J87" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K87" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3775,10 +4363,10 @@
         <v>24</v>
       </c>
       <c r="J88" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K88" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3807,10 +4395,10 @@
         <v>24</v>
       </c>
       <c r="J89" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K89" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3839,10 +4427,10 @@
         <v>24</v>
       </c>
       <c r="J90" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K90" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3871,10 +4459,10 @@
         <v>24</v>
       </c>
       <c r="J91" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K91" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3903,10 +4491,10 @@
         <v>24</v>
       </c>
       <c r="J92" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K92" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3935,10 +4523,3338 @@
         <v>24</v>
       </c>
       <c r="J93" t="s">
+        <v>114</v>
+      </c>
+      <c r="K93" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94">
+        <v>20</v>
+      </c>
+      <c r="K94" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95" t="s">
+        <v>115</v>
+      </c>
+      <c r="K95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K96" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" t="s">
+        <v>117</v>
+      </c>
+      <c r="K97" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" t="s">
+        <v>118</v>
+      </c>
+      <c r="K98" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" t="s">
+        <v>119</v>
+      </c>
+      <c r="K99" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" t="s">
+        <v>120</v>
+      </c>
+      <c r="K100" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" t="s">
+        <v>121</v>
+      </c>
+      <c r="K101" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="J102" t="s">
+        <v>122</v>
+      </c>
+      <c r="K102" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103">
+        <v>11</v>
+      </c>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103" t="s">
+        <v>123</v>
+      </c>
+      <c r="K103" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104">
+        <v>11</v>
+      </c>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" t="s">
+        <v>124</v>
+      </c>
+      <c r="K104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105">
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105" t="s">
+        <v>125</v>
+      </c>
+      <c r="K105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="J106" t="s">
+        <v>126</v>
+      </c>
+      <c r="K106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107">
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s">
+        <v>127</v>
+      </c>
+      <c r="K107" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="K93" t="s">
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108">
+        <v>11</v>
+      </c>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" t="s">
+        <v>128</v>
+      </c>
+      <c r="K108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" t="s">
+        <v>129</v>
+      </c>
+      <c r="K109" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" t="s">
+        <v>130</v>
+      </c>
+      <c r="K110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" t="s">
+        <v>131</v>
+      </c>
+      <c r="K111" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" t="s">
+        <v>132</v>
+      </c>
+      <c r="K112" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113">
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>25</v>
+      </c>
+      <c r="J113" t="s">
+        <v>133</v>
+      </c>
+      <c r="K113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114">
+        <v>11</v>
+      </c>
+      <c r="H114" t="s">
+        <v>25</v>
+      </c>
+      <c r="J114" t="s">
+        <v>134</v>
+      </c>
+      <c r="K114" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115">
+        <v>15</v>
+      </c>
+      <c r="K115" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" t="s">
+        <v>135</v>
+      </c>
+      <c r="K116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" t="s">
+        <v>136</v>
+      </c>
+      <c r="K117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" t="s">
+        <v>137</v>
+      </c>
+      <c r="K118" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" t="s">
+        <v>138</v>
+      </c>
+      <c r="K119" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>26</v>
+      </c>
+      <c r="J120" t="s">
+        <v>139</v>
+      </c>
+      <c r="K120" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" t="s">
+        <v>140</v>
+      </c>
+      <c r="K121" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" t="s">
+        <v>141</v>
+      </c>
+      <c r="K122" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>26</v>
+      </c>
+      <c r="J123" t="s">
+        <v>142</v>
+      </c>
+      <c r="K123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>26</v>
+      </c>
+      <c r="J124" t="s">
+        <v>143</v>
+      </c>
+      <c r="K124" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" t="s">
+        <v>144</v>
+      </c>
+      <c r="K125" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" t="s">
+        <v>145</v>
+      </c>
+      <c r="K126" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" t="s">
+        <v>146</v>
+      </c>
+      <c r="K127" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>26</v>
+      </c>
+      <c r="J128" t="s">
+        <v>147</v>
+      </c>
+      <c r="K128" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>26</v>
+      </c>
+      <c r="J129" t="s">
+        <v>148</v>
+      </c>
+      <c r="K129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J130" t="s">
+        <v>149</v>
+      </c>
+      <c r="K130" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131">
+        <v>5</v>
+      </c>
+      <c r="K131" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
+        <v>27</v>
+      </c>
+      <c r="J132" t="s">
+        <v>150</v>
+      </c>
+      <c r="K132" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" t="s">
+        <v>151</v>
+      </c>
+      <c r="K133" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>27</v>
+      </c>
+      <c r="J134" t="s">
+        <v>152</v>
+      </c>
+      <c r="K134" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>27</v>
+      </c>
+      <c r="J135" t="s">
+        <v>153</v>
+      </c>
+      <c r="K135" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>27</v>
+      </c>
+      <c r="J136" t="s">
+        <v>154</v>
+      </c>
+      <c r="K136" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>28</v>
+      </c>
+      <c r="I137">
+        <v>8</v>
+      </c>
+      <c r="K137" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>28</v>
+      </c>
+      <c r="J138" t="s">
+        <v>155</v>
+      </c>
+      <c r="K138" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>28</v>
+      </c>
+      <c r="J139" t="s">
+        <v>156</v>
+      </c>
+      <c r="K139" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>28</v>
+      </c>
+      <c r="J140" t="s">
+        <v>157</v>
+      </c>
+      <c r="K140" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>28</v>
+      </c>
+      <c r="J141" t="s">
+        <v>158</v>
+      </c>
+      <c r="K141" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>28</v>
+      </c>
+      <c r="J142" t="s">
+        <v>159</v>
+      </c>
+      <c r="K142" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>28</v>
+      </c>
+      <c r="J143" t="s">
+        <v>160</v>
+      </c>
+      <c r="K143" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>28</v>
+      </c>
+      <c r="J144" t="s">
+        <v>161</v>
+      </c>
+      <c r="K144" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>28</v>
+      </c>
+      <c r="J145" t="s">
+        <v>162</v>
+      </c>
+      <c r="K145" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>29</v>
+      </c>
+      <c r="I146">
+        <v>6</v>
+      </c>
+      <c r="K146" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>29</v>
+      </c>
+      <c r="J147" t="s">
+        <v>163</v>
+      </c>
+      <c r="K147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148">
+        <v>15</v>
+      </c>
+      <c r="H148" t="s">
+        <v>29</v>
+      </c>
+      <c r="J148" t="s">
+        <v>164</v>
+      </c>
+      <c r="K148" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149">
+        <v>15</v>
+      </c>
+      <c r="H149" t="s">
+        <v>29</v>
+      </c>
+      <c r="J149" t="s">
+        <v>165</v>
+      </c>
+      <c r="K149" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150">
+        <v>15</v>
+      </c>
+      <c r="H150" t="s">
+        <v>29</v>
+      </c>
+      <c r="J150" t="s">
+        <v>166</v>
+      </c>
+      <c r="K150" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151">
+        <v>15</v>
+      </c>
+      <c r="H151" t="s">
+        <v>29</v>
+      </c>
+      <c r="J151" t="s">
+        <v>167</v>
+      </c>
+      <c r="K151" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152">
+        <v>15</v>
+      </c>
+      <c r="H152" t="s">
+        <v>29</v>
+      </c>
+      <c r="J152" t="s">
+        <v>168</v>
+      </c>
+      <c r="K152" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s">
+        <v>30</v>
+      </c>
+      <c r="I153">
+        <v>15</v>
+      </c>
+      <c r="K153" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154">
+        <v>16</v>
+      </c>
+      <c r="H154" t="s">
+        <v>30</v>
+      </c>
+      <c r="J154" t="s">
+        <v>169</v>
+      </c>
+      <c r="K154" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s">
+        <v>30</v>
+      </c>
+      <c r="J155" t="s">
+        <v>170</v>
+      </c>
+      <c r="K155" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s">
+        <v>30</v>
+      </c>
+      <c r="J156" t="s">
+        <v>171</v>
+      </c>
+      <c r="K156" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157">
+        <v>16</v>
+      </c>
+      <c r="H157" t="s">
+        <v>30</v>
+      </c>
+      <c r="J157" t="s">
+        <v>172</v>
+      </c>
+      <c r="K157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158">
+        <v>16</v>
+      </c>
+      <c r="H158" t="s">
+        <v>30</v>
+      </c>
+      <c r="J158" t="s">
+        <v>173</v>
+      </c>
+      <c r="K158" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159">
+        <v>16</v>
+      </c>
+      <c r="H159" t="s">
+        <v>30</v>
+      </c>
+      <c r="J159" t="s">
+        <v>174</v>
+      </c>
+      <c r="K159" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160">
+        <v>16</v>
+      </c>
+      <c r="H160" t="s">
+        <v>30</v>
+      </c>
+      <c r="J160" t="s">
+        <v>175</v>
+      </c>
+      <c r="K160" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s">
+        <v>30</v>
+      </c>
+      <c r="J161" t="s">
+        <v>176</v>
+      </c>
+      <c r="K161" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s">
+        <v>30</v>
+      </c>
+      <c r="J162" t="s">
+        <v>177</v>
+      </c>
+      <c r="K162" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s">
+        <v>30</v>
+      </c>
+      <c r="J163" t="s">
+        <v>178</v>
+      </c>
+      <c r="K163" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164">
+        <v>16</v>
+      </c>
+      <c r="H164" t="s">
+        <v>30</v>
+      </c>
+      <c r="J164" t="s">
+        <v>179</v>
+      </c>
+      <c r="K164" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s">
+        <v>30</v>
+      </c>
+      <c r="J165" t="s">
+        <v>180</v>
+      </c>
+      <c r="K165" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s">
+        <v>30</v>
+      </c>
+      <c r="J166" t="s">
+        <v>181</v>
+      </c>
+      <c r="K166" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s">
+        <v>30</v>
+      </c>
+      <c r="J167" t="s">
+        <v>182</v>
+      </c>
+      <c r="K167" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s">
+        <v>30</v>
+      </c>
+      <c r="J168" t="s">
+        <v>183</v>
+      </c>
+      <c r="K168" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169">
+        <v>17</v>
+      </c>
+      <c r="H169" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169">
+        <v>24</v>
+      </c>
+      <c r="K169" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s">
+        <v>31</v>
+      </c>
+      <c r="J170" t="s">
+        <v>184</v>
+      </c>
+      <c r="K170" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171">
+        <v>17</v>
+      </c>
+      <c r="H171" t="s">
+        <v>31</v>
+      </c>
+      <c r="J171" t="s">
+        <v>185</v>
+      </c>
+      <c r="K171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172">
+        <v>17</v>
+      </c>
+      <c r="H172" t="s">
+        <v>31</v>
+      </c>
+      <c r="J172" t="s">
+        <v>186</v>
+      </c>
+      <c r="K172" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173">
+        <v>17</v>
+      </c>
+      <c r="H173" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173" t="s">
+        <v>187</v>
+      </c>
+      <c r="K173" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174" t="s">
+        <v>188</v>
+      </c>
+      <c r="K174" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175">
+        <v>17</v>
+      </c>
+      <c r="H175" t="s">
+        <v>31</v>
+      </c>
+      <c r="J175" t="s">
+        <v>189</v>
+      </c>
+      <c r="K175" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>31</v>
+      </c>
+      <c r="J176" t="s">
+        <v>190</v>
+      </c>
+      <c r="K176" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
+        <v>31</v>
+      </c>
+      <c r="J177" t="s">
+        <v>191</v>
+      </c>
+      <c r="K177" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178">
+        <v>17</v>
+      </c>
+      <c r="H178" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178" t="s">
+        <v>192</v>
+      </c>
+      <c r="K178" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179">
+        <v>17</v>
+      </c>
+      <c r="H179" t="s">
+        <v>31</v>
+      </c>
+      <c r="J179" t="s">
+        <v>193</v>
+      </c>
+      <c r="K179" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180">
+        <v>17</v>
+      </c>
+      <c r="H180" t="s">
+        <v>31</v>
+      </c>
+      <c r="J180" t="s">
+        <v>194</v>
+      </c>
+      <c r="K180" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181">
+        <v>17</v>
+      </c>
+      <c r="H181" t="s">
+        <v>31</v>
+      </c>
+      <c r="J181" t="s">
+        <v>195</v>
+      </c>
+      <c r="K181" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182">
+        <v>17</v>
+      </c>
+      <c r="H182" t="s">
+        <v>31</v>
+      </c>
+      <c r="J182" t="s">
         <v>196</v>
+      </c>
+      <c r="K182" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183">
+        <v>17</v>
+      </c>
+      <c r="H183" t="s">
+        <v>31</v>
+      </c>
+      <c r="J183" t="s">
+        <v>197</v>
+      </c>
+      <c r="K183" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184">
+        <v>17</v>
+      </c>
+      <c r="H184" t="s">
+        <v>31</v>
+      </c>
+      <c r="J184" t="s">
+        <v>198</v>
+      </c>
+      <c r="K184" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185">
+        <v>17</v>
+      </c>
+      <c r="H185" t="s">
+        <v>31</v>
+      </c>
+      <c r="J185" t="s">
+        <v>199</v>
+      </c>
+      <c r="K185" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186">
+        <v>17</v>
+      </c>
+      <c r="H186" t="s">
+        <v>31</v>
+      </c>
+      <c r="J186" t="s">
+        <v>200</v>
+      </c>
+      <c r="K186" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187">
+        <v>17</v>
+      </c>
+      <c r="H187" t="s">
+        <v>31</v>
+      </c>
+      <c r="J187" t="s">
+        <v>201</v>
+      </c>
+      <c r="K187" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188">
+        <v>17</v>
+      </c>
+      <c r="H188" t="s">
+        <v>31</v>
+      </c>
+      <c r="J188" t="s">
+        <v>202</v>
+      </c>
+      <c r="K188" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189">
+        <v>17</v>
+      </c>
+      <c r="H189" t="s">
+        <v>31</v>
+      </c>
+      <c r="J189" t="s">
+        <v>203</v>
+      </c>
+      <c r="K189" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190">
+        <v>17</v>
+      </c>
+      <c r="H190" t="s">
+        <v>31</v>
+      </c>
+      <c r="J190" t="s">
+        <v>204</v>
+      </c>
+      <c r="K190" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191">
+        <v>17</v>
+      </c>
+      <c r="H191" t="s">
+        <v>31</v>
+      </c>
+      <c r="J191" t="s">
+        <v>205</v>
+      </c>
+      <c r="K191" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192">
+        <v>17</v>
+      </c>
+      <c r="H192" t="s">
+        <v>31</v>
+      </c>
+      <c r="J192" t="s">
+        <v>206</v>
+      </c>
+      <c r="K192" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193">
+        <v>17</v>
+      </c>
+      <c r="H193" t="s">
+        <v>31</v>
+      </c>
+      <c r="J193" t="s">
+        <v>207</v>
+      </c>
+      <c r="K193" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194">
+        <v>18</v>
+      </c>
+      <c r="H194" t="s">
+        <v>32</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="K194" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195">
+        <v>18</v>
+      </c>
+      <c r="H195" t="s">
+        <v>32</v>
+      </c>
+      <c r="J195" t="s">
+        <v>208</v>
+      </c>
+      <c r="K195" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196">
+        <v>18</v>
+      </c>
+      <c r="H196" t="s">
+        <v>32</v>
+      </c>
+      <c r="J196" t="s">
+        <v>209</v>
+      </c>
+      <c r="K196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>14</v>
+      </c>
+      <c r="G197">
+        <v>18</v>
+      </c>
+      <c r="H197" t="s">
+        <v>32</v>
+      </c>
+      <c r="J197" t="s">
+        <v>210</v>
+      </c>
+      <c r="K197" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
